--- a/medicine/Enfance/Dorothy_M._Johnson/Dorothy_M._Johnson.xlsx
+++ b/medicine/Enfance/Dorothy_M._Johnson/Dorothy_M._Johnson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorothy Marie Johnson, née le 19 décembre 1905 à McGregor (Iowa) et morte le 11 novembre 1984 à Missoula (Montana), est une auteure américaine surtout connue pour ses nouvelles westerns[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorothy Marie Johnson, née le 19 décembre 1905 à McGregor (Iowa) et morte le 11 novembre 1984 à Missoula (Montana), est une auteure américaine surtout connue pour ses nouvelles westerns.
 </t>
         </is>
       </c>
@@ -511,14 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors que Dorothy M. Johnson étudie à la Whitefish High School, elle travaille comme journaliste pour le journal The Daily Inter Lake de Kalispell (Montana).
 Elle étudie l'anglais à l'université avant de se marier. Ce bref mariage se termine par un divorce.
 Sa carrière d'écrivain s'amorce en 1930 quand le journal The Saturday Evening Post lui achète Bonnie George Campbell, sa première nouvelle, pour la somme de 400 dollars. Elle ne se remet pourtant à l'écriture d'autres nouvelles que près de douze ans plus tard, en 1941. L'avénement de la Deuxième Guerre mondiale, alors qu'elle travaille pour le Air Warden Service, lui laisse néanmoins assez de temps pour écrire. Après le conflit, elle intensifie la fréquence de ses publications et devient célèbre grâce à ses nouvelles westerns, notamment A Man Called Horse (en) (1950), The Man Who Shot Liberty Valance (1949) et The Hanging Tree (1957).
 Bien que sa réputation tienne surtout à ses qualités de nouvelliste, elle est également romancière et auteur d'ouvrages de littérature d'enfance et de jeunesse.
-Décès
-Fière de son autonomie, en dépit de son mariage raté, elle a déclaré avant sa mort que son épitaphe devrait être "Payé intégralement". Sur sa tombe, au cimetière de Whitefish (Montana), se lit simplement le mot "PAID" (payé). Elle est morte le 11 novembre 1984[2].
 </t>
         </is>
       </c>
@@ -544,24 +556,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fière de son autonomie, en dépit de son mariage raté, elle a déclaré avant sa mort que son épitaphe devrait être "Payé intégralement". Sur sa tombe, au cimetière de Whitefish (Montana), se lit simplement le mot "PAID" (payé). Elle est morte le 11 novembre 1984.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Buffalo Woman (1977)
-All the Buffalo Returning (1979)
-Romans de littérature d'enfance et de jeunesse
-Farewell to Troy (1964)
-Witch Princess (1967)
-Recueils de nouvelles
-Beulah Bunny Tells All (édition américaine, 1942) ; Miss Bunny Intervenes (édition britannique, 1948)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Buffalo Woman (1977)
+All the Buffalo Returning (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Farewell to Troy (1964)
+Witch Princess (1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Beulah Bunny Tells All (édition américaine, 1942) ; Miss Bunny Intervenes (édition britannique, 1948)
 Indian Country (publié plus tard sous le titre A Man Called Horse) (1953) Contrée indienne, traduit de façon partielle par Lili (pour Liliane) Stztajn, Paris, J.-C. Lattès, 1986 (BNF 35013700) ; réédition, Paris, UGE, coll. « 10/18. Domaine étranger » no 2375, 1993  (ISBN 2-264-01908-5) ; réédition, Paris, Gallmeister, 2013  (ISBN 978-2-35178-527-0) ; réédition dans une traduction revue et complétée, Paris, Gallmeister, coll. « Totem », 2017  (ISBN 978-2-35178-654-3)
 The Hanging Tree (1957) La Colline des potences, traduit de façon partielle par Lili (pour Liliane) Stztajn, Paris, Terrain vague-Losfeld, 1989  (ISBN 2-85208-103-2) ; réédition, Paris, UGE, coll. « 10/18. Domaine étranger » no 2376, 1993  (ISBN 2-264-01909-3) ; réédition, Paris, Gallmeister, 2015  (ISBN 978-2-35178-553-9) ; réédition dans une traduction revue et complétée, Paris, Gallmeister, coll. « Totem » no 53, 2017  (ISBN 978-2-35178-653-6)
 Flame on the Frontier: Short Stories of Pioneer Woman (1967)
-The Man Who Knew the Buckskin Kid (1976)
-Nouvelles
+The Man Who Knew the Buckskin Kid (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bonnie George Campbell (1930)
 Fruit Tramps (1930)
 Fellow Has to Get Away Sometime (1941)
@@ -608,8 +765,43 @@
 The Hanging Tree (1957)
 The Elk Tooth Dress (1958)
 The Lady and the Killer (1959)
-Autres publications
-The Private Secretary par John Robert Gregg (1943) ; écrit par Johnson comme nègre littéraire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dorothy_M._Johnson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Private Secretary par John Robert Gregg (1943) ; écrit par Johnson comme nègre littéraire
 Famous Lawmen of the Old West (1963)
 Ancient Greek Dress (1964)
 Greece: Wonderland of the Past and Present (1964)
